--- a/plume_tracking/step4_estimate_flux.xlsx
+++ b/plume_tracking/step4_estimate_flux.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drt/src/emit-ghg/plume_tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5702F726-6034-2848-8779-904135D2C0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680028EB-8D4E-EE4C-88DC-5D57F0E4516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" xr2:uid="{791C355A-1723-3D42-8923-BD42702913E4}"/>
   </bookViews>
@@ -225,14 +225,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,33 +267,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -606,7 +606,7 @@
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,71 +622,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D4" s="13">
+      <c r="D4" s="9">
         <v>3.43</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="10">
         <v>2.9</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="11">
         <f>(5.43+5.7+6)/3</f>
         <v>5.71</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -781,34 +781,34 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f>AVERAGE(C8:C10)</f>
         <v>37.052561503287301</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f>AVERAGE(D8:D10)</f>
         <v>127.09028595627547</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f>AVERAGE(E8:E10)</f>
         <v>107.45242835953316</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f>AVERAGE(F8:F10)</f>
         <v>211.5701261837705</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f>AVERAGE(G8:G10)</f>
         <v>148.2102460131492</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f t="shared" ref="H11:I11" si="0">AVERAGE(H8:H10)</f>
         <v>153.33333333333334</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
